--- a/시장분석용_정보/시장분석용_4211032000.xlsx
+++ b/시장분석용_정보/시장분석용_4211032000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="39">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -536,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV49"/>
+  <dimension ref="A1:AF49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,64 +588,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>805</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -705,10 +609,10 @@
         <v>2218204098</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>4211032000</v>
@@ -717,7 +621,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L2">
         <v>4039282</v>
@@ -729,117 +633,69 @@
         <v>155357</v>
       </c>
       <c r="O2">
-        <v>59.91</v>
+        <v>1.38</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>40.09</v>
       </c>
-      <c r="Q2">
-        <v>40.09</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
+      <c r="V2">
+        <v>48.96</v>
+      </c>
+      <c r="W2">
+        <v>3.36</v>
+      </c>
+      <c r="X2">
         <v>6.21</v>
       </c>
-      <c r="T2">
-        <v>1.38</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>52.32</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>48.96</v>
-      </c>
       <c r="Y2">
-        <v>3.36</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>47.68</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>10.96</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>40.09</v>
-      </c>
-      <c r="AL2">
-        <v>48.96</v>
-      </c>
-      <c r="AM2">
-        <v>3.36</v>
-      </c>
-      <c r="AN2">
-        <v>6.21</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>10.96</v>
-      </c>
-      <c r="AS2">
-        <v>89.04000000000001</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>806</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>202001</v>
@@ -851,10 +707,10 @@
         <v>2218305018</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <v>4211032000</v>
@@ -863,7 +719,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L3">
         <v>15286785</v>
@@ -875,117 +731,69 @@
         <v>63168.53305785124</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>3.77</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="R3">
-        <v>33.71</v>
+        <v>1.33</v>
       </c>
       <c r="S3">
-        <v>40.09</v>
+        <v>35.4</v>
       </c>
       <c r="T3">
-        <v>3.08</v>
+        <v>3.54</v>
       </c>
       <c r="U3">
-        <v>16.17</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="V3">
-        <v>6.95</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>11.59</v>
       </c>
       <c r="X3">
-        <v>7.17</v>
+        <v>41.02</v>
       </c>
       <c r="Y3">
-        <v>56.08</v>
+        <v>4.23</v>
       </c>
       <c r="Z3">
-        <v>36.76</v>
+        <v>0.32</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>14.14</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>78.62</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE3">
-        <v>3.77</v>
+        <v>0.44</v>
       </c>
       <c r="AF3">
-        <v>0.12</v>
-      </c>
-      <c r="AG3">
-        <v>2.29</v>
-      </c>
-      <c r="AH3">
-        <v>1.33</v>
-      </c>
-      <c r="AI3">
-        <v>35.4</v>
-      </c>
-      <c r="AJ3">
-        <v>3.54</v>
-      </c>
-      <c r="AK3">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>11.59</v>
-      </c>
-      <c r="AN3">
-        <v>41.02</v>
-      </c>
-      <c r="AO3">
-        <v>4.23</v>
-      </c>
-      <c r="AP3">
-        <v>0.32</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>14.14</v>
-      </c>
-      <c r="AS3">
-        <v>78.62</v>
-      </c>
-      <c r="AT3">
-        <v>2.25</v>
-      </c>
-      <c r="AU3">
-        <v>0.44</v>
-      </c>
-      <c r="AV3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>2010</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>202002</v>
@@ -997,10 +805,10 @@
         <v>2218305018</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I4">
         <v>4211032000</v>
@@ -1009,7 +817,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L4">
         <v>6551561</v>
@@ -1021,117 +829,69 @@
         <v>40947.25625</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>0.74</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>8.41</v>
       </c>
       <c r="R4">
-        <v>12.1</v>
+        <v>4.3</v>
       </c>
       <c r="S4">
-        <v>10.63</v>
+        <v>6.52</v>
       </c>
       <c r="T4">
-        <v>33.81</v>
+        <v>0.75</v>
       </c>
       <c r="U4">
-        <v>41.31</v>
+        <v>3.33</v>
       </c>
       <c r="V4">
-        <v>2.15</v>
+        <v>3.29</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>29.35</v>
       </c>
       <c r="X4">
-        <v>49.54</v>
+        <v>36.41</v>
       </c>
       <c r="Y4">
-        <v>36.09</v>
+        <v>1.6</v>
       </c>
       <c r="Z4">
-        <v>14.37</v>
+        <v>0.74</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>56.78</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE4">
-        <v>0.74</v>
+        <v>16.85</v>
       </c>
       <c r="AF4">
-        <v>6.9</v>
-      </c>
-      <c r="AG4">
-        <v>8.41</v>
-      </c>
-      <c r="AH4">
-        <v>4.3</v>
-      </c>
-      <c r="AI4">
-        <v>6.52</v>
-      </c>
-      <c r="AJ4">
-        <v>0.75</v>
-      </c>
-      <c r="AK4">
-        <v>3.33</v>
-      </c>
-      <c r="AL4">
-        <v>3.29</v>
-      </c>
-      <c r="AM4">
-        <v>29.35</v>
-      </c>
-      <c r="AN4">
-        <v>36.41</v>
-      </c>
-      <c r="AO4">
-        <v>1.6</v>
-      </c>
-      <c r="AP4">
-        <v>0.74</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>14</v>
-      </c>
-      <c r="AS4">
-        <v>56.78</v>
-      </c>
-      <c r="AT4">
-        <v>1.9</v>
-      </c>
-      <c r="AU4">
-        <v>16.85</v>
-      </c>
-      <c r="AV4">
         <v>8.119999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>3213</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>202003</v>
@@ -1143,10 +903,10 @@
         <v>2218204098</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>4211032000</v>
@@ -1155,7 +915,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L5">
         <v>576191</v>
@@ -1167,7 +927,7 @@
         <v>38412.73333333333</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1176,26 +936,26 @@
         <v>0</v>
       </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>23.86</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>17.15</v>
       </c>
-      <c r="U5">
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>58.99</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>100</v>
-      </c>
       <c r="Y5">
         <v>0</v>
       </c>
@@ -1206,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>23.86</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>76.14</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1220,64 +980,16 @@
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>23.86</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>17.15</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>58.99</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>23.86</v>
-      </c>
-      <c r="AS5">
-        <v>76.14</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>3214</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>202003</v>
@@ -1289,10 +1001,10 @@
         <v>2218305018</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>4211032000</v>
@@ -1301,7 +1013,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L6">
         <v>12398665</v>
@@ -1313,117 +1025,69 @@
         <v>43811.5371024735</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>1.41</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>4.72</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="R6">
-        <v>37.46</v>
+        <v>3.58</v>
       </c>
       <c r="S6">
-        <v>44.73</v>
+        <v>31.71</v>
       </c>
       <c r="T6">
-        <v>6.19</v>
+        <v>3.26</v>
       </c>
       <c r="U6">
-        <v>6.48</v>
+        <v>3.95</v>
       </c>
       <c r="V6">
-        <v>5.14</v>
+        <v>9.4</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="X6">
-        <v>5.84</v>
+        <v>28.55</v>
       </c>
       <c r="Y6">
-        <v>48.28</v>
+        <v>2.83</v>
       </c>
       <c r="Z6">
-        <v>45.88</v>
+        <v>5.07</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>33.24</v>
       </c>
       <c r="AE6">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AF6">
-        <v>4.72</v>
-      </c>
-      <c r="AG6">
-        <v>3.88</v>
-      </c>
-      <c r="AH6">
-        <v>3.58</v>
-      </c>
-      <c r="AI6">
-        <v>31.71</v>
-      </c>
-      <c r="AJ6">
-        <v>3.26</v>
-      </c>
-      <c r="AK6">
-        <v>3.95</v>
-      </c>
-      <c r="AL6">
-        <v>9.4</v>
-      </c>
-      <c r="AM6">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="AN6">
-        <v>28.55</v>
-      </c>
-      <c r="AO6">
-        <v>2.83</v>
-      </c>
-      <c r="AP6">
-        <v>5.07</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="AS6">
-        <v>47.3</v>
-      </c>
-      <c r="AT6">
-        <v>33.24</v>
-      </c>
-      <c r="AU6">
-        <v>1.48</v>
-      </c>
-      <c r="AV6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>4422</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>202004</v>
@@ -1435,10 +1099,10 @@
         <v>2218305018</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <v>4211032000</v>
@@ -1447,7 +1111,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L7">
         <v>9801274</v>
@@ -1459,117 +1123,69 @@
         <v>43755.6875</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>4.14</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>6.42</v>
       </c>
       <c r="R7">
-        <v>12.52</v>
+        <v>3.26</v>
       </c>
       <c r="S7">
-        <v>10.44</v>
+        <v>26.39</v>
       </c>
       <c r="T7">
-        <v>1.79</v>
+        <v>7.9</v>
       </c>
       <c r="U7">
-        <v>67.12</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>8.130000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="X7">
-        <v>32.53</v>
+        <v>47.98</v>
       </c>
       <c r="Y7">
-        <v>59.92</v>
+        <v>5.74</v>
       </c>
       <c r="Z7">
-        <v>7.55</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>13.94</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>57.49</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF7">
-        <v>4.14</v>
-      </c>
-      <c r="AG7">
-        <v>6.42</v>
-      </c>
-      <c r="AH7">
-        <v>3.26</v>
-      </c>
-      <c r="AI7">
-        <v>26.39</v>
-      </c>
-      <c r="AJ7">
-        <v>7.9</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>1.8</v>
-      </c>
-      <c r="AM7">
-        <v>2.13</v>
-      </c>
-      <c r="AN7">
-        <v>47.98</v>
-      </c>
-      <c r="AO7">
-        <v>5.74</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>13.94</v>
-      </c>
-      <c r="AS7">
-        <v>57.49</v>
-      </c>
-      <c r="AT7">
-        <v>21.6</v>
-      </c>
-      <c r="AU7">
-        <v>1.23</v>
-      </c>
-      <c r="AV7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>5635</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>202005</v>
@@ -1581,10 +1197,10 @@
         <v>2218305018</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I8">
         <v>4211032000</v>
@@ -1593,7 +1209,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L8">
         <v>12210826</v>
@@ -1605,117 +1221,69 @@
         <v>60151.85221674877</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>0.66</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="R8">
-        <v>26.52</v>
+        <v>4.8</v>
       </c>
       <c r="S8">
-        <v>10.72</v>
+        <v>3.19</v>
       </c>
       <c r="T8">
-        <v>50.31</v>
+        <v>2.96</v>
       </c>
       <c r="U8">
-        <v>9.119999999999999</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>3.34</v>
+        <v>45.08</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="X8">
-        <v>32.38</v>
+        <v>35.94</v>
       </c>
       <c r="Y8">
-        <v>59.28</v>
+        <v>1.44</v>
       </c>
       <c r="Z8">
-        <v>8.34</v>
+        <v>0.63</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>84.73999999999999</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="AE8">
-        <v>0.66</v>
+        <v>1.52</v>
       </c>
       <c r="AF8">
-        <v>1.31</v>
-      </c>
-      <c r="AG8">
-        <v>2.16</v>
-      </c>
-      <c r="AH8">
-        <v>4.8</v>
-      </c>
-      <c r="AI8">
-        <v>3.19</v>
-      </c>
-      <c r="AJ8">
-        <v>2.96</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>45.08</v>
-      </c>
-      <c r="AM8">
-        <v>3.9</v>
-      </c>
-      <c r="AN8">
-        <v>35.94</v>
-      </c>
-      <c r="AO8">
-        <v>1.44</v>
-      </c>
-      <c r="AP8">
-        <v>0.63</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>6.4</v>
-      </c>
-      <c r="AS8">
-        <v>84.73999999999999</v>
-      </c>
-      <c r="AT8">
-        <v>3.19</v>
-      </c>
-      <c r="AU8">
-        <v>1.52</v>
-      </c>
-      <c r="AV8">
         <v>2.08</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>6857</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>202006</v>
@@ -1727,10 +1295,10 @@
         <v>2218204098</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I9">
         <v>4211032000</v>
@@ -1739,7 +1307,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L9">
         <v>522983</v>
@@ -1751,7 +1319,7 @@
         <v>19369.74074074074</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1760,43 +1328,43 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>59.35</v>
+        <v>12.56</v>
       </c>
       <c r="S9">
-        <v>15.42</v>
+        <v>8.58</v>
       </c>
       <c r="T9">
-        <v>16.65</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>8.58</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>12.56</v>
+        <v>78.86</v>
       </c>
       <c r="Y9">
-        <v>40.65</v>
+        <v>0</v>
       </c>
       <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <v>46.78</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
       <c r="AC9">
-        <v>0</v>
+        <v>21.14</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>32.07</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1804,64 +1372,16 @@
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>12.56</v>
-      </c>
-      <c r="AI9">
-        <v>8.58</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>78.86</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>46.78</v>
-      </c>
-      <c r="AS9">
-        <v>21.14</v>
-      </c>
-      <c r="AT9">
-        <v>32.07</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>6858</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>202006</v>
@@ -1873,10 +1393,10 @@
         <v>2218305018</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <v>4211032000</v>
@@ -1885,7 +1405,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L10">
         <v>12558576</v>
@@ -1897,117 +1417,69 @@
         <v>48488.71042471042</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>0.6</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>5.58</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="R10">
-        <v>49.84</v>
+        <v>1.64</v>
       </c>
       <c r="S10">
-        <v>36.4</v>
+        <v>46.35</v>
       </c>
       <c r="T10">
-        <v>4.2</v>
+        <v>0.34</v>
       </c>
       <c r="U10">
-        <v>5.18</v>
+        <v>1.62</v>
       </c>
       <c r="V10">
-        <v>4.38</v>
+        <v>4.52</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="X10">
-        <v>31.86</v>
+        <v>32.49</v>
       </c>
       <c r="Y10">
-        <v>60.25</v>
+        <v>0.87</v>
       </c>
       <c r="Z10">
-        <v>7.89</v>
+        <v>0.44</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>43.05</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>45.29</v>
       </c>
       <c r="AE10">
-        <v>0.6</v>
+        <v>1.58</v>
       </c>
       <c r="AF10">
-        <v>5.58</v>
-      </c>
-      <c r="AG10">
-        <v>3.79</v>
-      </c>
-      <c r="AH10">
-        <v>1.64</v>
-      </c>
-      <c r="AI10">
-        <v>46.35</v>
-      </c>
-      <c r="AJ10">
-        <v>0.34</v>
-      </c>
-      <c r="AK10">
-        <v>1.62</v>
-      </c>
-      <c r="AL10">
-        <v>4.52</v>
-      </c>
-      <c r="AM10">
-        <v>3.07</v>
-      </c>
-      <c r="AN10">
-        <v>32.49</v>
-      </c>
-      <c r="AO10">
-        <v>0.87</v>
-      </c>
-      <c r="AP10">
-        <v>0.44</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>7.75</v>
-      </c>
-      <c r="AS10">
-        <v>43.05</v>
-      </c>
-      <c r="AT10">
-        <v>45.29</v>
-      </c>
-      <c r="AU10">
-        <v>1.58</v>
-      </c>
-      <c r="AV10">
         <v>1.03</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>8075</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>202007</v>
@@ -2019,10 +1491,10 @@
         <v>2218204098</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I11">
         <v>4211032000</v>
@@ -2031,7 +1503,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L11">
         <v>631684</v>
@@ -2043,7 +1515,7 @@
         <v>28712.90909090909</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2052,108 +1524,60 @@
         <v>0</v>
       </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>55.85</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
       <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>44.15</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>65.88</v>
+      </c>
+      <c r="AC11">
+        <v>15.05</v>
+      </c>
+      <c r="AD11">
         <v>19.07</v>
       </c>
-      <c r="U11">
-        <v>25.09</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>65.88</v>
-      </c>
-      <c r="Z11">
-        <v>34.12</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>55.85</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>44.15</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>65.88</v>
-      </c>
-      <c r="AS11">
-        <v>15.05</v>
-      </c>
-      <c r="AT11">
-        <v>19.07</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>8076</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>202007</v>
@@ -2165,10 +1589,10 @@
         <v>2218305018</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <v>4211032000</v>
@@ -2177,7 +1601,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L12">
         <v>7817374</v>
@@ -2189,117 +1613,69 @@
         <v>30182.9111969112</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>6.18</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.27</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="R12">
-        <v>9.279999999999999</v>
+        <v>13.33</v>
       </c>
       <c r="S12">
-        <v>15.56</v>
+        <v>4.48</v>
       </c>
       <c r="T12">
-        <v>18.35</v>
+        <v>3.68</v>
       </c>
       <c r="U12">
-        <v>14.12</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
-        <v>42.7</v>
+        <v>28.11</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="X12">
-        <v>69.81</v>
+        <v>29.58</v>
       </c>
       <c r="Y12">
-        <v>21.36</v>
+        <v>3.68</v>
       </c>
       <c r="Z12">
-        <v>8.82</v>
+        <v>1.24</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>16.22</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>48.35</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>27.02</v>
       </c>
       <c r="AE12">
-        <v>6.18</v>
+        <v>3.49</v>
       </c>
       <c r="AF12">
-        <v>6.27</v>
-      </c>
-      <c r="AG12">
-        <v>3.07</v>
-      </c>
-      <c r="AH12">
-        <v>13.33</v>
-      </c>
-      <c r="AI12">
-        <v>4.48</v>
-      </c>
-      <c r="AJ12">
-        <v>3.68</v>
-      </c>
-      <c r="AK12">
-        <v>1.85</v>
-      </c>
-      <c r="AL12">
-        <v>28.11</v>
-      </c>
-      <c r="AM12">
-        <v>3.45</v>
-      </c>
-      <c r="AN12">
-        <v>29.58</v>
-      </c>
-      <c r="AO12">
-        <v>3.68</v>
-      </c>
-      <c r="AP12">
-        <v>1.24</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>16.22</v>
-      </c>
-      <c r="AS12">
-        <v>48.35</v>
-      </c>
-      <c r="AT12">
-        <v>27.02</v>
-      </c>
-      <c r="AU12">
-        <v>3.49</v>
-      </c>
-      <c r="AV12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>9291</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>202008</v>
@@ -2311,10 +1687,10 @@
         <v>2218305018</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I13">
         <v>4211032000</v>
@@ -2323,7 +1699,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L13">
         <v>21282394</v>
@@ -2335,117 +1711,69 @@
         <v>86513.79674796748</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>1.31</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R13">
-        <v>20.19</v>
+        <v>1.11</v>
       </c>
       <c r="S13">
-        <v>3.92</v>
+        <v>53.16</v>
       </c>
       <c r="T13">
-        <v>13.72</v>
+        <v>1.58</v>
       </c>
       <c r="U13">
-        <v>4.64</v>
+        <v>5.47</v>
       </c>
       <c r="V13">
-        <v>57.53</v>
+        <v>2.71</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X13">
-        <v>26.25</v>
+        <v>28.39</v>
       </c>
       <c r="Y13">
-        <v>69.37</v>
+        <v>0.76</v>
       </c>
       <c r="Z13">
-        <v>4.38</v>
+        <v>1.31</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>18.09</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>46.42</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>30.58</v>
       </c>
       <c r="AE13">
-        <v>1.31</v>
+        <v>2.84</v>
       </c>
       <c r="AF13">
-        <v>2.52</v>
-      </c>
-      <c r="AG13">
-        <v>1.91</v>
-      </c>
-      <c r="AH13">
-        <v>1.11</v>
-      </c>
-      <c r="AI13">
-        <v>53.16</v>
-      </c>
-      <c r="AJ13">
-        <v>1.58</v>
-      </c>
-      <c r="AK13">
-        <v>5.47</v>
-      </c>
-      <c r="AL13">
-        <v>2.71</v>
-      </c>
-      <c r="AM13">
-        <v>1.83</v>
-      </c>
-      <c r="AN13">
-        <v>28.39</v>
-      </c>
-      <c r="AO13">
-        <v>0.76</v>
-      </c>
-      <c r="AP13">
-        <v>1.31</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>18.09</v>
-      </c>
-      <c r="AS13">
-        <v>46.42</v>
-      </c>
-      <c r="AT13">
-        <v>30.58</v>
-      </c>
-      <c r="AU13">
-        <v>2.84</v>
-      </c>
-      <c r="AV13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>10510</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>202009</v>
@@ -2457,10 +1785,10 @@
         <v>2218305018</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I14">
         <v>4211032000</v>
@@ -2469,7 +1797,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L14">
         <v>6099379</v>
@@ -2481,117 +1809,69 @@
         <v>21178.39930555555</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>15.94</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.86</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>20.03</v>
       </c>
       <c r="R14">
-        <v>8.15</v>
+        <v>12.85</v>
       </c>
       <c r="S14">
-        <v>17.13</v>
+        <v>3.79</v>
       </c>
       <c r="T14">
-        <v>23.5</v>
+        <v>7.83</v>
       </c>
       <c r="U14">
-        <v>38.51</v>
+        <v>7.47</v>
       </c>
       <c r="V14">
-        <v>12.71</v>
+        <v>7.97</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="X14">
-        <v>12.14</v>
+        <v>12.33</v>
       </c>
       <c r="Y14">
-        <v>54.66</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>33.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>29.41</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>56.78</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE14">
-        <v>15.94</v>
+        <v>1.48</v>
       </c>
       <c r="AF14">
-        <v>7.86</v>
-      </c>
-      <c r="AG14">
-        <v>20.03</v>
-      </c>
-      <c r="AH14">
-        <v>12.85</v>
-      </c>
-      <c r="AI14">
-        <v>3.79</v>
-      </c>
-      <c r="AJ14">
-        <v>7.83</v>
-      </c>
-      <c r="AK14">
-        <v>7.47</v>
-      </c>
-      <c r="AL14">
-        <v>7.97</v>
-      </c>
-      <c r="AM14">
         <v>3.93</v>
       </c>
-      <c r="AN14">
-        <v>12.33</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>7.1</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>29.41</v>
-      </c>
-      <c r="AS14">
-        <v>56.78</v>
-      </c>
-      <c r="AT14">
-        <v>1.31</v>
-      </c>
-      <c r="AU14">
-        <v>1.48</v>
-      </c>
-      <c r="AV14">
-        <v>3.93</v>
-      </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>11728</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>202010</v>
@@ -2603,10 +1883,10 @@
         <v>2218204098</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I15">
         <v>4211032000</v>
@@ -2615,7 +1895,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L15">
         <v>739006</v>
@@ -2627,7 +1907,7 @@
         <v>28423.30769230769</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2636,41 +1916,41 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="S15">
+        <v>54.83</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>9.83</v>
+      </c>
+      <c r="X15">
+        <v>32.15</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>85.5</v>
+      </c>
+      <c r="AC15">
         <v>14.5</v>
       </c>
-      <c r="T15">
-        <v>32.15</v>
-      </c>
-      <c r="U15">
-        <v>53.36</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>13.02</v>
-      </c>
-      <c r="Y15">
-        <v>54.83</v>
-      </c>
-      <c r="Z15">
-        <v>32.15</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
       <c r="AD15">
         <v>0</v>
       </c>
@@ -2680,64 +1960,16 @@
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>3.19</v>
-      </c>
-      <c r="AI15">
-        <v>54.83</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>9.83</v>
-      </c>
-      <c r="AN15">
-        <v>32.15</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>85.5</v>
-      </c>
-      <c r="AS15">
-        <v>14.5</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>11729</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>202010</v>
@@ -2749,10 +1981,10 @@
         <v>2218305018</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I16">
         <v>4211032000</v>
@@ -2761,7 +1993,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L16">
         <v>6594192</v>
@@ -2773,117 +2005,69 @@
         <v>26482.69879518072</v>
       </c>
       <c r="O16">
-        <v>100</v>
+        <v>4.48</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>8.35</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>5.78</v>
       </c>
       <c r="R16">
-        <v>24.51</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="S16">
-        <v>17.74</v>
+        <v>19.1</v>
       </c>
       <c r="T16">
-        <v>33.75</v>
+        <v>2.92</v>
       </c>
       <c r="U16">
-        <v>17.82</v>
+        <v>1.37</v>
       </c>
       <c r="V16">
-        <v>6.18</v>
+        <v>7.93</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>7.69</v>
       </c>
       <c r="X16">
-        <v>30.21</v>
+        <v>33.16</v>
       </c>
       <c r="Y16">
-        <v>32.96</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>36.83</v>
+        <v>4.48</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>8.32</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE16">
-        <v>4.48</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AF16">
-        <v>8.35</v>
-      </c>
-      <c r="AG16">
-        <v>5.78</v>
-      </c>
-      <c r="AH16">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="AI16">
-        <v>19.1</v>
-      </c>
-      <c r="AJ16">
-        <v>2.92</v>
-      </c>
-      <c r="AK16">
-        <v>1.37</v>
-      </c>
-      <c r="AL16">
-        <v>7.93</v>
-      </c>
-      <c r="AM16">
-        <v>7.69</v>
-      </c>
-      <c r="AN16">
-        <v>33.16</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>4.48</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>8.32</v>
-      </c>
-      <c r="AS16">
-        <v>74.01000000000001</v>
-      </c>
-      <c r="AT16">
-        <v>12.5</v>
-      </c>
-      <c r="AU16">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AV16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>12958</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>202011</v>
@@ -2895,10 +2079,10 @@
         <v>2218204098</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I17">
         <v>4211032000</v>
@@ -2907,7 +2091,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L17">
         <v>2342742</v>
@@ -2919,7 +2103,7 @@
         <v>234274.2</v>
       </c>
       <c r="O17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2928,25 +2112,25 @@
         <v>0</v>
       </c>
       <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>20.81</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
       <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
         <v>79.19</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
       <c r="X17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2958,10 +2142,10 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>20.81</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>79.19</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -2972,64 +2156,16 @@
       <c r="AF17">
         <v>0</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>20.81</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>79.19</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>20.81</v>
-      </c>
-      <c r="AS17">
-        <v>79.19</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>12959</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>202011</v>
@@ -3041,10 +2177,10 @@
         <v>2218305018</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I18">
         <v>4211032000</v>
@@ -3053,7 +2189,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L18">
         <v>5253607</v>
@@ -3065,117 +2201,69 @@
         <v>19243.98168498169</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>11.06</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>19.92</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="R18">
-        <v>20.19</v>
+        <v>13.15</v>
       </c>
       <c r="S18">
-        <v>32.44</v>
+        <v>2.07</v>
       </c>
       <c r="T18">
-        <v>12.56</v>
+        <v>4.03</v>
       </c>
       <c r="U18">
-        <v>27.96</v>
+        <v>4.58</v>
       </c>
       <c r="V18">
-        <v>6.85</v>
+        <v>2.1</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>15.26</v>
       </c>
       <c r="X18">
-        <v>20.87</v>
+        <v>23.58</v>
       </c>
       <c r="Y18">
-        <v>51.31</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>27.82</v>
+        <v>6.81</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>13.98</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>66.75</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AE18">
-        <v>11.06</v>
+        <v>6.89</v>
       </c>
       <c r="AF18">
-        <v>19.92</v>
-      </c>
-      <c r="AG18">
-        <v>4.24</v>
-      </c>
-      <c r="AH18">
-        <v>13.15</v>
-      </c>
-      <c r="AI18">
-        <v>2.07</v>
-      </c>
-      <c r="AJ18">
-        <v>4.03</v>
-      </c>
-      <c r="AK18">
-        <v>4.58</v>
-      </c>
-      <c r="AL18">
-        <v>2.1</v>
-      </c>
-      <c r="AM18">
-        <v>15.26</v>
-      </c>
-      <c r="AN18">
-        <v>23.58</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>6.81</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>13.98</v>
-      </c>
-      <c r="AS18">
-        <v>66.75</v>
-      </c>
-      <c r="AT18">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AU18">
-        <v>6.89</v>
-      </c>
-      <c r="AV18">
         <v>4.76</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>14189</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>202012</v>
@@ -3187,10 +2275,10 @@
         <v>2218305018</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I19">
         <v>4211032000</v>
@@ -3199,7 +2287,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L19">
         <v>5501057</v>
@@ -3211,117 +2299,69 @@
         <v>20076.8503649635</v>
       </c>
       <c r="O19">
-        <v>100</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>27.31</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R19">
-        <v>12.66</v>
+        <v>3.84</v>
       </c>
       <c r="S19">
-        <v>31.96</v>
+        <v>10.26</v>
       </c>
       <c r="T19">
-        <v>17.94</v>
+        <v>4.79</v>
       </c>
       <c r="U19">
-        <v>36.81</v>
+        <v>5.8</v>
       </c>
       <c r="V19">
-        <v>0.64</v>
+        <v>4.35</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>11.12</v>
       </c>
       <c r="X19">
-        <v>25.26</v>
+        <v>22.12</v>
       </c>
       <c r="Y19">
-        <v>56.84</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>17.9</v>
+        <v>5.91</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>65.19</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>6.32</v>
       </c>
       <c r="AE19">
-        <v>8.470000000000001</v>
+        <v>6.18</v>
       </c>
       <c r="AF19">
-        <v>27.31</v>
-      </c>
-      <c r="AG19">
-        <v>1.95</v>
-      </c>
-      <c r="AH19">
-        <v>3.84</v>
-      </c>
-      <c r="AI19">
-        <v>10.26</v>
-      </c>
-      <c r="AJ19">
-        <v>4.79</v>
-      </c>
-      <c r="AK19">
-        <v>5.8</v>
-      </c>
-      <c r="AL19">
-        <v>4.35</v>
-      </c>
-      <c r="AM19">
-        <v>11.12</v>
-      </c>
-      <c r="AN19">
-        <v>22.12</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>5.91</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>12.1</v>
-      </c>
-      <c r="AS19">
-        <v>65.19</v>
-      </c>
-      <c r="AT19">
-        <v>6.32</v>
-      </c>
-      <c r="AU19">
-        <v>6.18</v>
-      </c>
-      <c r="AV19">
         <v>4.3</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>15413</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>202101</v>
@@ -3333,10 +2373,10 @@
         <v>2218204098</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I20">
         <v>4211032000</v>
@@ -3345,7 +2385,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L20">
         <v>321268</v>
@@ -3357,7 +2397,7 @@
         <v>32126.8</v>
       </c>
       <c r="O20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3372,16 +2412,16 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>72.51000000000001</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
       <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
         <v>27.49</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
       </c>
       <c r="X20">
         <v>72.51000000000001</v>
@@ -3390,84 +2430,36 @@
         <v>0</v>
       </c>
       <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>72.51000000000001</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
         <v>27.49</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>27.49</v>
-      </c>
-      <c r="AN20">
-        <v>72.51000000000001</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>72.51000000000001</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>27.49</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>15414</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>202101</v>
@@ -3479,10 +2471,10 @@
         <v>2218305018</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I21">
         <v>4211032000</v>
@@ -3491,7 +2483,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L21">
         <v>5043114</v>
@@ -3503,117 +2495,69 @@
         <v>19471.48262548263</v>
       </c>
       <c r="O21">
-        <v>100</v>
+        <v>7.25</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>21.35</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>7.26</v>
       </c>
       <c r="R21">
-        <v>17.22</v>
+        <v>14.19</v>
       </c>
       <c r="S21">
-        <v>46.98</v>
+        <v>11.53</v>
       </c>
       <c r="T21">
-        <v>9.56</v>
+        <v>16.12</v>
       </c>
       <c r="U21">
-        <v>23.66</v>
+        <v>0.53</v>
       </c>
       <c r="V21">
-        <v>2.58</v>
+        <v>0.95</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="X21">
-        <v>21.46</v>
+        <v>18.71</v>
       </c>
       <c r="Y21">
-        <v>60.66</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>14.96</v>
+        <v>18.82</v>
       </c>
       <c r="AA21">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>62.29</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="AE21">
-        <v>7.25</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>21.35</v>
-      </c>
-      <c r="AG21">
-        <v>7.26</v>
-      </c>
-      <c r="AH21">
-        <v>14.19</v>
-      </c>
-      <c r="AI21">
-        <v>11.53</v>
-      </c>
-      <c r="AJ21">
-        <v>16.12</v>
-      </c>
-      <c r="AK21">
-        <v>0.53</v>
-      </c>
-      <c r="AL21">
-        <v>0.95</v>
-      </c>
-      <c r="AM21">
-        <v>2.11</v>
-      </c>
-      <c r="AN21">
-        <v>18.71</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>18.82</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>5.64</v>
-      </c>
-      <c r="AS21">
-        <v>62.29</v>
-      </c>
-      <c r="AT21">
-        <v>13.25</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>16643</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>202102</v>
@@ -3625,10 +2569,10 @@
         <v>2218305018</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I22">
         <v>4211032000</v>
@@ -3637,7 +2581,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L22">
         <v>3794788</v>
@@ -3649,117 +2593,69 @@
         <v>19764.52083333333</v>
       </c>
       <c r="O22">
-        <v>100</v>
+        <v>3.59</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>4.81</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="R22">
-        <v>14.14</v>
+        <v>3.01</v>
       </c>
       <c r="S22">
-        <v>28.01</v>
+        <v>9.77</v>
       </c>
       <c r="T22">
-        <v>31.01</v>
+        <v>30.32</v>
       </c>
       <c r="U22">
-        <v>20.28</v>
+        <v>1.72</v>
       </c>
       <c r="V22">
         <v>6.55</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>19.62</v>
       </c>
       <c r="X22">
-        <v>26.42</v>
+        <v>17.77</v>
       </c>
       <c r="Y22">
-        <v>65.70999999999999</v>
+        <v>3.31</v>
       </c>
       <c r="Z22">
-        <v>7.87</v>
+        <v>29.33</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>11.13</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>37.25</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="AE22">
-        <v>3.59</v>
+        <v>2.94</v>
       </c>
       <c r="AF22">
-        <v>4.81</v>
-      </c>
-      <c r="AG22">
-        <v>2.84</v>
-      </c>
-      <c r="AH22">
-        <v>3.01</v>
-      </c>
-      <c r="AI22">
-        <v>9.77</v>
-      </c>
-      <c r="AJ22">
-        <v>30.32</v>
-      </c>
-      <c r="AK22">
-        <v>1.72</v>
-      </c>
-      <c r="AL22">
-        <v>6.55</v>
-      </c>
-      <c r="AM22">
-        <v>19.62</v>
-      </c>
-      <c r="AN22">
-        <v>17.77</v>
-      </c>
-      <c r="AO22">
-        <v>3.31</v>
-      </c>
-      <c r="AP22">
-        <v>29.33</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>11.13</v>
-      </c>
-      <c r="AS22">
-        <v>37.25</v>
-      </c>
-      <c r="AT22">
-        <v>6.55</v>
-      </c>
-      <c r="AU22">
-        <v>2.94</v>
-      </c>
-      <c r="AV22">
         <v>9.48</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>17877</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>202103</v>
@@ -3771,10 +2667,10 @@
         <v>2218204098</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I23">
         <v>4211032000</v>
@@ -3783,7 +2679,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L23">
         <v>198112</v>
@@ -3795,50 +2691,50 @@
         <v>12382</v>
       </c>
       <c r="O23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>14.62</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>59.79</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
         <v>25.59</v>
       </c>
-      <c r="T23">
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>14.62</v>
+      </c>
+      <c r="AC23">
         <v>59.79</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>14.62</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>100</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
       <c r="AD23">
         <v>0</v>
       </c>
@@ -3846,66 +2742,18 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>14.62</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>59.79</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
         <v>25.59</v>
       </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>14.62</v>
-      </c>
-      <c r="AS23">
-        <v>59.79</v>
-      </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>25.59</v>
-      </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>17878</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>202103</v>
@@ -3917,10 +2765,10 @@
         <v>2218305018</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I24">
         <v>4211032000</v>
@@ -3929,7 +2777,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L24">
         <v>4942904</v>
@@ -3941,117 +2789,69 @@
         <v>22265.33333333333</v>
       </c>
       <c r="O24">
-        <v>100</v>
+        <v>1.79</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.59</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="R24">
-        <v>10.82</v>
+        <v>10.86</v>
       </c>
       <c r="S24">
-        <v>8.970000000000001</v>
+        <v>7.33</v>
       </c>
       <c r="T24">
-        <v>44.91</v>
+        <v>31.15</v>
       </c>
       <c r="U24">
-        <v>27.97</v>
+        <v>5.55</v>
       </c>
       <c r="V24">
-        <v>7.33</v>
+        <v>2.63</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>6.96</v>
       </c>
       <c r="X24">
-        <v>24.83</v>
+        <v>22.98</v>
       </c>
       <c r="Y24">
-        <v>50.77</v>
+        <v>1.96</v>
       </c>
       <c r="Z24">
-        <v>24.4</v>
+        <v>20.65</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>10.12</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>55.61</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>5.53</v>
       </c>
       <c r="AE24">
-        <v>1.79</v>
+        <v>6.13</v>
       </c>
       <c r="AF24">
-        <v>8.59</v>
-      </c>
-      <c r="AG24">
-        <v>2.16</v>
-      </c>
-      <c r="AH24">
-        <v>10.86</v>
-      </c>
-      <c r="AI24">
-        <v>7.33</v>
-      </c>
-      <c r="AJ24">
-        <v>31.15</v>
-      </c>
-      <c r="AK24">
-        <v>5.55</v>
-      </c>
-      <c r="AL24">
-        <v>2.63</v>
-      </c>
-      <c r="AM24">
-        <v>6.96</v>
-      </c>
-      <c r="AN24">
-        <v>22.98</v>
-      </c>
-      <c r="AO24">
-        <v>1.96</v>
-      </c>
-      <c r="AP24">
-        <v>20.65</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>10.12</v>
-      </c>
-      <c r="AS24">
-        <v>55.61</v>
-      </c>
-      <c r="AT24">
-        <v>5.53</v>
-      </c>
-      <c r="AU24">
-        <v>6.13</v>
-      </c>
-      <c r="AV24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>19113</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>202104</v>
@@ -4063,10 +2863,10 @@
         <v>2218204098</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I25">
         <v>4211032000</v>
@@ -4075,7 +2875,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L25">
         <v>132521</v>
@@ -4090,114 +2890,66 @@
         <v>54.68</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>45.32</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <v>54.68</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
+      <c r="AD25">
         <v>45.32</v>
       </c>
-      <c r="X25">
-        <v>100</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
       <c r="AE25">
-        <v>54.68</v>
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>45.32</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
-        <v>54.68</v>
-      </c>
-      <c r="AT25">
-        <v>45.32</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>19114</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>202104</v>
@@ -4209,10 +2961,10 @@
         <v>2218305018</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I26">
         <v>4211032000</v>
@@ -4221,7 +2973,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L26">
         <v>3680273</v>
@@ -4233,117 +2985,69 @@
         <v>18681.58883248731</v>
       </c>
       <c r="O26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="R26">
-        <v>12.33</v>
+        <v>1.43</v>
       </c>
       <c r="S26">
-        <v>10.97</v>
+        <v>4.11</v>
       </c>
       <c r="T26">
-        <v>24.93</v>
+        <v>16.19</v>
       </c>
       <c r="U26">
-        <v>45.77</v>
+        <v>6.27</v>
       </c>
       <c r="V26">
         <v>5.99</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>9.92</v>
       </c>
       <c r="X26">
-        <v>18.51</v>
+        <v>36.49</v>
       </c>
       <c r="Y26">
-        <v>69.81999999999999</v>
+        <v>1.62</v>
       </c>
       <c r="Z26">
-        <v>11.66</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>36.2</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>43.03</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>11.43</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF26">
-        <v>11.1</v>
-      </c>
-      <c r="AG26">
-        <v>8.5</v>
-      </c>
-      <c r="AH26">
-        <v>1.43</v>
-      </c>
-      <c r="AI26">
-        <v>4.11</v>
-      </c>
-      <c r="AJ26">
-        <v>16.19</v>
-      </c>
-      <c r="AK26">
-        <v>6.27</v>
-      </c>
-      <c r="AL26">
-        <v>5.99</v>
-      </c>
-      <c r="AM26">
-        <v>9.92</v>
-      </c>
-      <c r="AN26">
-        <v>36.49</v>
-      </c>
-      <c r="AO26">
-        <v>1.62</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>36.2</v>
-      </c>
-      <c r="AS26">
-        <v>43.03</v>
-      </c>
-      <c r="AT26">
-        <v>11.43</v>
-      </c>
-      <c r="AU26">
-        <v>1.27</v>
-      </c>
-      <c r="AV26">
         <v>6.46</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>20351</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>202105</v>
@@ -4355,10 +3059,10 @@
         <v>2218305018</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I27">
         <v>4211032000</v>
@@ -4367,7 +3071,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K27" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L27">
         <v>3681669</v>
@@ -4379,117 +3083,69 @@
         <v>17615.64114832536</v>
       </c>
       <c r="O27">
-        <v>100</v>
+        <v>2.6</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>10.15</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>4.57</v>
       </c>
       <c r="R27">
-        <v>6.31</v>
+        <v>6.1</v>
       </c>
       <c r="S27">
-        <v>17.64</v>
+        <v>22.06</v>
       </c>
       <c r="T27">
-        <v>29.01</v>
+        <v>22.36</v>
       </c>
       <c r="U27">
-        <v>31.97</v>
+        <v>7.35</v>
       </c>
       <c r="V27">
-        <v>15.07</v>
+        <v>2.57</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>20</v>
+        <v>22.24</v>
       </c>
       <c r="Y27">
-        <v>63.85</v>
+        <v>5.23</v>
       </c>
       <c r="Z27">
-        <v>16.15</v>
+        <v>2.6</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>36.33</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>51.51</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="AE27">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>10.15</v>
-      </c>
-      <c r="AG27">
-        <v>4.57</v>
-      </c>
-      <c r="AH27">
-        <v>6.1</v>
-      </c>
-      <c r="AI27">
-        <v>22.06</v>
-      </c>
-      <c r="AJ27">
-        <v>22.36</v>
-      </c>
-      <c r="AK27">
-        <v>7.35</v>
-      </c>
-      <c r="AL27">
-        <v>2.57</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>22.24</v>
-      </c>
-      <c r="AO27">
-        <v>5.23</v>
-      </c>
-      <c r="AP27">
-        <v>2.6</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>36.33</v>
-      </c>
-      <c r="AS27">
-        <v>51.51</v>
-      </c>
-      <c r="AT27">
-        <v>4.18</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
         <v>0.16</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>21588</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>202106</v>
@@ -4501,10 +3157,10 @@
         <v>2218204098</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I28">
         <v>4211032000</v>
@@ -4513,7 +3169,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L28">
         <v>1490154</v>
@@ -4525,7 +3181,7 @@
         <v>93134.625</v>
       </c>
       <c r="O28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -4534,41 +3190,41 @@
         <v>0</v>
       </c>
       <c r="R28">
+        <v>4.54</v>
+      </c>
+      <c r="S28">
+        <v>95.45999999999999</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>4.54</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>91.22</v>
+      </c>
+      <c r="AC28">
         <v>4.24</v>
       </c>
-      <c r="S28">
-        <v>91.22</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>4.54</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>100</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
       <c r="AD28">
         <v>0</v>
       </c>
@@ -4578,64 +3234,16 @@
       <c r="AF28">
         <v>0</v>
       </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>4.54</v>
-      </c>
-      <c r="AI28">
-        <v>95.45999999999999</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>4.54</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>91.22</v>
-      </c>
-      <c r="AS28">
-        <v>4.24</v>
-      </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>21589</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>202106</v>
@@ -4647,10 +3255,10 @@
         <v>2218305018</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I29">
         <v>4211032000</v>
@@ -4659,7 +3267,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L29">
         <v>5067354</v>
@@ -4671,117 +3279,69 @@
         <v>22421.9203539823</v>
       </c>
       <c r="O29">
-        <v>100</v>
+        <v>3.89</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>10.63</v>
       </c>
       <c r="R29">
-        <v>12.35</v>
+        <v>1.39</v>
       </c>
       <c r="S29">
-        <v>20.87</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T29">
-        <v>36.16</v>
+        <v>20.65</v>
       </c>
       <c r="U29">
-        <v>19.75</v>
+        <v>8.15</v>
       </c>
       <c r="V29">
-        <v>10.87</v>
+        <v>14.08</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>7.46</v>
       </c>
       <c r="X29">
-        <v>23.93</v>
+        <v>19.11</v>
       </c>
       <c r="Y29">
-        <v>61.73</v>
+        <v>1.38</v>
       </c>
       <c r="Z29">
-        <v>14.34</v>
+        <v>3.89</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>24.68</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>52.39</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>7.54</v>
       </c>
       <c r="AE29">
-        <v>3.89</v>
+        <v>5.27</v>
       </c>
       <c r="AF29">
-        <v>5.85</v>
-      </c>
-      <c r="AG29">
-        <v>10.63</v>
-      </c>
-      <c r="AH29">
-        <v>1.39</v>
-      </c>
-      <c r="AI29">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AJ29">
-        <v>20.65</v>
-      </c>
-      <c r="AK29">
-        <v>8.15</v>
-      </c>
-      <c r="AL29">
-        <v>14.08</v>
-      </c>
-      <c r="AM29">
-        <v>7.46</v>
-      </c>
-      <c r="AN29">
-        <v>19.11</v>
-      </c>
-      <c r="AO29">
-        <v>1.38</v>
-      </c>
-      <c r="AP29">
-        <v>3.89</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>24.68</v>
-      </c>
-      <c r="AS29">
-        <v>52.39</v>
-      </c>
-      <c r="AT29">
-        <v>7.54</v>
-      </c>
-      <c r="AU29">
-        <v>5.27</v>
-      </c>
-      <c r="AV29">
         <v>4.85</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>22826</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>202107</v>
@@ -4793,10 +3353,10 @@
         <v>2218305018</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I30">
         <v>4211032000</v>
@@ -4805,7 +3365,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L30">
         <v>6455855</v>
@@ -4817,117 +3377,69 @@
         <v>22494.26829268293</v>
       </c>
       <c r="O30">
-        <v>100</v>
+        <v>4.48</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="R30">
-        <v>10.22</v>
+        <v>21.71</v>
       </c>
       <c r="S30">
-        <v>4.88</v>
+        <v>7.4</v>
       </c>
       <c r="T30">
-        <v>33.02</v>
+        <v>23.94</v>
       </c>
       <c r="U30">
-        <v>31.55</v>
+        <v>1.29</v>
       </c>
       <c r="V30">
-        <v>20.33</v>
+        <v>6.03</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>4.06</v>
       </c>
       <c r="X30">
-        <v>21.51</v>
+        <v>16.36</v>
       </c>
       <c r="Y30">
-        <v>70.44</v>
+        <v>9.91</v>
       </c>
       <c r="Z30">
-        <v>8.050000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>50.43</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>6.77</v>
       </c>
       <c r="AE30">
-        <v>4.48</v>
+        <v>5.29</v>
       </c>
       <c r="AF30">
         <v>5.6</v>
       </c>
-      <c r="AG30">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="AH30">
-        <v>21.71</v>
-      </c>
-      <c r="AI30">
-        <v>7.4</v>
-      </c>
-      <c r="AJ30">
-        <v>23.94</v>
-      </c>
-      <c r="AK30">
-        <v>1.29</v>
-      </c>
-      <c r="AL30">
-        <v>6.03</v>
-      </c>
-      <c r="AM30">
-        <v>4.06</v>
-      </c>
-      <c r="AN30">
-        <v>16.36</v>
-      </c>
-      <c r="AO30">
-        <v>9.91</v>
-      </c>
-      <c r="AP30">
-        <v>1.5</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>20.5</v>
-      </c>
-      <c r="AS30">
-        <v>50.43</v>
-      </c>
-      <c r="AT30">
-        <v>6.77</v>
-      </c>
-      <c r="AU30">
-        <v>5.29</v>
-      </c>
-      <c r="AV30">
-        <v>5.6</v>
-      </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:32">
       <c r="A31" s="1">
         <v>24064</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>202108</v>
@@ -4939,10 +3451,10 @@
         <v>2218305018</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I31">
         <v>4211032000</v>
@@ -4951,7 +3463,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K31" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L31">
         <v>10705572</v>
@@ -4963,117 +3475,69 @@
         <v>34423.06109324759</v>
       </c>
       <c r="O31">
-        <v>100</v>
+        <v>5.39</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>4.56</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>11.21</v>
       </c>
       <c r="R31">
-        <v>10.65</v>
+        <v>3.13</v>
       </c>
       <c r="S31">
-        <v>31.44</v>
+        <v>5.64</v>
       </c>
       <c r="T31">
-        <v>35.55</v>
+        <v>14.58</v>
       </c>
       <c r="U31">
-        <v>18.23</v>
+        <v>3.01</v>
       </c>
       <c r="V31">
-        <v>4.13</v>
+        <v>0.63</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>16.07</v>
       </c>
       <c r="X31">
-        <v>43.43</v>
+        <v>35.78</v>
       </c>
       <c r="Y31">
-        <v>42.16</v>
+        <v>0.95</v>
       </c>
       <c r="Z31">
-        <v>13.98</v>
+        <v>2.1</v>
       </c>
       <c r="AA31">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>21.67</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="AE31">
-        <v>5.39</v>
+        <v>3.04</v>
       </c>
       <c r="AF31">
-        <v>4.56</v>
-      </c>
-      <c r="AG31">
-        <v>11.21</v>
-      </c>
-      <c r="AH31">
-        <v>3.13</v>
-      </c>
-      <c r="AI31">
-        <v>5.64</v>
-      </c>
-      <c r="AJ31">
-        <v>14.58</v>
-      </c>
-      <c r="AK31">
-        <v>3.01</v>
-      </c>
-      <c r="AL31">
-        <v>0.63</v>
-      </c>
-      <c r="AM31">
-        <v>16.07</v>
-      </c>
-      <c r="AN31">
-        <v>35.78</v>
-      </c>
-      <c r="AO31">
-        <v>0.95</v>
-      </c>
-      <c r="AP31">
-        <v>2.1</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>67.2</v>
-      </c>
-      <c r="AS31">
-        <v>21.67</v>
-      </c>
-      <c r="AT31">
-        <v>5.05</v>
-      </c>
-      <c r="AU31">
-        <v>3.04</v>
-      </c>
-      <c r="AV31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:32">
       <c r="A32" s="1">
         <v>25308</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>202109</v>
@@ -5085,10 +3549,10 @@
         <v>2218204098</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I32">
         <v>4211032000</v>
@@ -5097,7 +3561,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L32">
         <v>2164685</v>
@@ -5109,7 +3573,7 @@
         <v>135292.8125</v>
       </c>
       <c r="O32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -5121,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>98.59</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>86.43000000000001</v>
       </c>
       <c r="V32">
         <v>1.41</v>
@@ -5136,90 +3600,42 @@
         <v>0</v>
       </c>
       <c r="X32">
+        <v>12.17</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>12.17</v>
+      </c>
+      <c r="AC32">
         <v>86.43000000000001</v>
       </c>
-      <c r="Y32">
-        <v>12.17</v>
-      </c>
-      <c r="Z32">
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
         <v>1.41</v>
       </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>86.43000000000001</v>
-      </c>
-      <c r="AL32">
-        <v>1.41</v>
-      </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
-      <c r="AN32">
-        <v>12.17</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>12.17</v>
-      </c>
-      <c r="AS32">
-        <v>86.43000000000001</v>
-      </c>
-      <c r="AT32">
-        <v>0</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>1.41</v>
-      </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:32">
       <c r="A33" s="1">
         <v>25309</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>202109</v>
@@ -5231,10 +3647,10 @@
         <v>2218305018</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I33">
         <v>4211032000</v>
@@ -5243,7 +3659,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K33" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L33">
         <v>9142920</v>
@@ -5255,117 +3671,69 @@
         <v>29304.23076923077</v>
       </c>
       <c r="O33">
-        <v>100</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>5.47</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="R33">
-        <v>20.81</v>
+        <v>15.19</v>
       </c>
       <c r="S33">
-        <v>34.61</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="T33">
-        <v>15.24</v>
+        <v>12.09</v>
       </c>
       <c r="U33">
-        <v>18.64</v>
+        <v>12.12</v>
       </c>
       <c r="V33">
-        <v>10.7</v>
+        <v>0.76</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>24.34</v>
       </c>
       <c r="X33">
-        <v>11.68</v>
+        <v>6.56</v>
       </c>
       <c r="Y33">
-        <v>70.01000000000001</v>
+        <v>5</v>
       </c>
       <c r="Z33">
-        <v>18.31</v>
+        <v>3.73</v>
       </c>
       <c r="AA33">
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>30.44</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>50.45</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AE33">
-        <v>9.460000000000001</v>
+        <v>6.55</v>
       </c>
       <c r="AF33">
-        <v>5.47</v>
-      </c>
-      <c r="AG33">
-        <v>4.04</v>
-      </c>
-      <c r="AH33">
-        <v>15.19</v>
-      </c>
-      <c r="AI33">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="AJ33">
-        <v>12.09</v>
-      </c>
-      <c r="AK33">
-        <v>12.12</v>
-      </c>
-      <c r="AL33">
-        <v>0.76</v>
-      </c>
-      <c r="AM33">
-        <v>24.34</v>
-      </c>
-      <c r="AN33">
-        <v>6.56</v>
-      </c>
-      <c r="AO33">
-        <v>5</v>
-      </c>
-      <c r="AP33">
-        <v>3.73</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>30.44</v>
-      </c>
-      <c r="AS33">
-        <v>50.45</v>
-      </c>
-      <c r="AT33">
-        <v>2.51</v>
-      </c>
-      <c r="AU33">
-        <v>6.55</v>
-      </c>
-      <c r="AV33">
         <v>1.32</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:32">
       <c r="A34" s="1">
         <v>26556</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>202110</v>
@@ -5377,10 +3745,10 @@
         <v>2218204098</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I34">
         <v>4211032000</v>
@@ -5389,7 +3757,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L34">
         <v>3976473</v>
@@ -5401,7 +3769,7 @@
         <v>180748.7727272727</v>
       </c>
       <c r="O34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -5413,105 +3781,57 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>97.89</v>
+        <v>0</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
       <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>93.7</v>
+      </c>
+      <c r="W34">
+        <v>6.3</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>4.19</v>
+      </c>
+      <c r="AC34">
         <v>2.11</v>
       </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>100</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
       <c r="AD34">
-        <v>0</v>
+        <v>92.36</v>
       </c>
       <c r="AE34">
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
-      <c r="AL34">
-        <v>93.7</v>
-      </c>
-      <c r="AM34">
-        <v>6.3</v>
-      </c>
-      <c r="AN34">
-        <v>0</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>0</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>4.19</v>
-      </c>
-      <c r="AS34">
-        <v>2.11</v>
-      </c>
-      <c r="AT34">
-        <v>92.36</v>
-      </c>
-      <c r="AU34">
-        <v>0</v>
-      </c>
-      <c r="AV34">
         <v>1.34</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:32">
       <c r="A35" s="1">
         <v>26557</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>202110</v>
@@ -5523,10 +3843,10 @@
         <v>2218305018</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I35">
         <v>4211032000</v>
@@ -5535,7 +3855,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L35">
         <v>12985465</v>
@@ -5547,117 +3867,69 @@
         <v>45403.72377622378</v>
       </c>
       <c r="O35">
-        <v>100</v>
+        <v>4.27</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>3.36</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="R35">
-        <v>5.93</v>
+        <v>1.02</v>
       </c>
       <c r="S35">
-        <v>36.34</v>
+        <v>1.75</v>
       </c>
       <c r="T35">
-        <v>40.4</v>
+        <v>6.47</v>
       </c>
       <c r="U35">
-        <v>8.81</v>
+        <v>4.67</v>
       </c>
       <c r="V35">
-        <v>8.51</v>
+        <v>3.99</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>36.6</v>
       </c>
       <c r="X35">
-        <v>5.66</v>
+        <v>34.56</v>
       </c>
       <c r="Y35">
-        <v>44.98</v>
+        <v>0.85</v>
       </c>
       <c r="Z35">
-        <v>49.36</v>
+        <v>1.5</v>
       </c>
       <c r="AA35">
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>39.52</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>14.37</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="AE35">
-        <v>4.27</v>
+        <v>36.99</v>
       </c>
       <c r="AF35">
-        <v>3.36</v>
-      </c>
-      <c r="AG35">
-        <v>3.31</v>
-      </c>
-      <c r="AH35">
-        <v>1.02</v>
-      </c>
-      <c r="AI35">
-        <v>1.75</v>
-      </c>
-      <c r="AJ35">
-        <v>6.47</v>
-      </c>
-      <c r="AK35">
-        <v>4.67</v>
-      </c>
-      <c r="AL35">
-        <v>3.99</v>
-      </c>
-      <c r="AM35">
-        <v>36.6</v>
-      </c>
-      <c r="AN35">
-        <v>34.56</v>
-      </c>
-      <c r="AO35">
-        <v>0.85</v>
-      </c>
-      <c r="AP35">
-        <v>1.5</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>39.52</v>
-      </c>
-      <c r="AS35">
-        <v>14.37</v>
-      </c>
-      <c r="AT35">
-        <v>5.55</v>
-      </c>
-      <c r="AU35">
-        <v>36.99</v>
-      </c>
-      <c r="AV35">
         <v>1.23</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:32">
       <c r="A36" s="1">
         <v>27809</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>202111</v>
@@ -5669,10 +3941,10 @@
         <v>2218204098</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I36">
         <v>4211032000</v>
@@ -5681,7 +3953,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K36" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L36">
         <v>448954</v>
@@ -5693,7 +3965,7 @@
         <v>21378.7619047619</v>
       </c>
       <c r="O36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -5702,10 +3974,10 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>25.05</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>17.17</v>
+        <v>0</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -5714,26 +3986,26 @@
         <v>0</v>
       </c>
       <c r="V36">
+        <v>42.22</v>
+      </c>
+      <c r="W36">
         <v>57.78</v>
       </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
       <c r="X36">
-        <v>13.03</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>29.19</v>
+        <v>0</v>
       </c>
       <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
         <v>57.78</v>
       </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
       <c r="AC36">
         <v>0</v>
       </c>
@@ -5744,66 +4016,18 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
         <v>42.22</v>
       </c>
-      <c r="AM36">
-        <v>57.78</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>57.78</v>
-      </c>
-      <c r="AS36">
-        <v>0</v>
-      </c>
-      <c r="AT36">
-        <v>0</v>
-      </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
-      <c r="AV36">
-        <v>42.22</v>
-      </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:32">
       <c r="A37" s="1">
         <v>27810</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D37">
         <v>202111</v>
@@ -5815,10 +4039,10 @@
         <v>2218305018</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I37">
         <v>4211032000</v>
@@ -5827,7 +4051,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K37" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L37">
         <v>12664072</v>
@@ -5839,117 +4063,69 @@
         <v>46730.89298892989</v>
       </c>
       <c r="O37">
-        <v>100</v>
+        <v>3.49</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>30.43</v>
       </c>
       <c r="R37">
-        <v>5.39</v>
+        <v>38.65</v>
       </c>
       <c r="S37">
-        <v>43.04</v>
+        <v>1.99</v>
       </c>
       <c r="T37">
-        <v>13.4</v>
+        <v>5.86</v>
       </c>
       <c r="U37">
-        <v>8.85</v>
+        <v>0.73</v>
       </c>
       <c r="V37">
-        <v>29.32</v>
+        <v>3.36</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="X37">
-        <v>7.36</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="Y37">
-        <v>53.75</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>38.89</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>40.99</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>49.94</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AE37">
-        <v>3.49</v>
+        <v>1.86</v>
       </c>
       <c r="AF37">
-        <v>4.1</v>
-      </c>
-      <c r="AG37">
-        <v>30.43</v>
-      </c>
-      <c r="AH37">
-        <v>38.65</v>
-      </c>
-      <c r="AI37">
-        <v>1.99</v>
-      </c>
-      <c r="AJ37">
-        <v>5.86</v>
-      </c>
-      <c r="AK37">
-        <v>0.73</v>
-      </c>
-      <c r="AL37">
-        <v>3.36</v>
-      </c>
-      <c r="AM37">
-        <v>3.1</v>
-      </c>
-      <c r="AN37">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>40.99</v>
-      </c>
-      <c r="AS37">
-        <v>49.94</v>
-      </c>
-      <c r="AT37">
-        <v>5.5</v>
-      </c>
-      <c r="AU37">
-        <v>1.86</v>
-      </c>
-      <c r="AV37">
         <v>1.71</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:32">
       <c r="A38" s="1">
         <v>29056</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>202112</v>
@@ -5961,10 +4137,10 @@
         <v>2218204098</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I38">
         <v>4211032000</v>
@@ -5973,7 +4149,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K38" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L38">
         <v>2902240</v>
@@ -5985,7 +4161,7 @@
         <v>56906.66666666666</v>
       </c>
       <c r="O38">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -5994,108 +4170,60 @@
         <v>0</v>
       </c>
       <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0.78</v>
+      </c>
+      <c r="W38">
+        <v>29.72</v>
+      </c>
+      <c r="X38">
+        <v>69.5</v>
+      </c>
+      <c r="Y38">
         <v>56.01</v>
       </c>
-      <c r="S38">
-        <v>9.52</v>
-      </c>
-      <c r="T38">
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>6.52</v>
+      </c>
+      <c r="AC38">
         <v>3.98</v>
       </c>
-      <c r="U38">
-        <v>7.31</v>
-      </c>
-      <c r="V38">
-        <v>23.19</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
+      <c r="AD38">
+        <v>32.71</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
         <v>0.78</v>
       </c>
-      <c r="Y38">
-        <v>92.69</v>
-      </c>
-      <c r="Z38">
-        <v>6.52</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>0.78</v>
-      </c>
-      <c r="AM38">
-        <v>29.72</v>
-      </c>
-      <c r="AN38">
-        <v>69.5</v>
-      </c>
-      <c r="AO38">
-        <v>56.01</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>6.52</v>
-      </c>
-      <c r="AS38">
-        <v>3.98</v>
-      </c>
-      <c r="AT38">
-        <v>32.71</v>
-      </c>
-      <c r="AU38">
-        <v>0</v>
-      </c>
-      <c r="AV38">
-        <v>0.78</v>
-      </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:32">
       <c r="A39" s="1">
         <v>29057</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D39">
         <v>202112</v>
@@ -6107,10 +4235,10 @@
         <v>2218305018</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I39">
         <v>4211032000</v>
@@ -6119,7 +4247,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K39" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L39">
         <v>9721130</v>
@@ -6131,117 +4259,69 @@
         <v>30763.06962025317</v>
       </c>
       <c r="O39">
-        <v>100</v>
+        <v>7.1</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>6.48</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="R39">
-        <v>7.71</v>
+        <v>2.13</v>
       </c>
       <c r="S39">
-        <v>11.18</v>
+        <v>7.91</v>
       </c>
       <c r="T39">
-        <v>15.13</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="U39">
-        <v>17.04</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>48.95</v>
+        <v>44.58</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="X39">
-        <v>52.64</v>
+        <v>12.94</v>
       </c>
       <c r="Y39">
-        <v>24.55</v>
+        <v>2.34</v>
       </c>
       <c r="Z39">
-        <v>22.81</v>
+        <v>0</v>
       </c>
       <c r="AA39">
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>19.26</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>7.86</v>
       </c>
       <c r="AE39">
-        <v>7.1</v>
+        <v>6.19</v>
       </c>
       <c r="AF39">
-        <v>6.48</v>
-      </c>
-      <c r="AG39">
-        <v>3.3</v>
-      </c>
-      <c r="AH39">
-        <v>2.13</v>
-      </c>
-      <c r="AI39">
-        <v>7.91</v>
-      </c>
-      <c r="AJ39">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>44.58</v>
-      </c>
-      <c r="AM39">
-        <v>7.1</v>
-      </c>
-      <c r="AN39">
-        <v>12.94</v>
-      </c>
-      <c r="AO39">
-        <v>2.34</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>19.26</v>
-      </c>
-      <c r="AS39">
-        <v>64.34999999999999</v>
-      </c>
-      <c r="AT39">
-        <v>7.86</v>
-      </c>
-      <c r="AU39">
-        <v>6.19</v>
-      </c>
-      <c r="AV39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:32">
       <c r="A40" s="1">
         <v>30303</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D40">
         <v>202201</v>
@@ -6253,10 +4333,10 @@
         <v>2218204098</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I40">
         <v>4211032000</v>
@@ -6265,7 +4345,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K40" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L40">
         <v>1086417</v>
@@ -6277,10 +4357,10 @@
         <v>38800.60714285714</v>
       </c>
       <c r="O40">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>19.46</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -6289,105 +4369,57 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>55.41</v>
+        <v>0</v>
       </c>
       <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>17.43</v>
+      </c>
+      <c r="X40">
+        <v>63.11</v>
+      </c>
+      <c r="Y40">
+        <v>37.98</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>36.89</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
         <v>25.13</v>
       </c>
-      <c r="V40">
-        <v>7.96</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>55.41</v>
-      </c>
-      <c r="Y40">
-        <v>7.96</v>
-      </c>
-      <c r="Z40">
-        <v>36.63</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
       <c r="AF40">
-        <v>19.46</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
-      <c r="AK40">
-        <v>0</v>
-      </c>
-      <c r="AL40">
-        <v>0</v>
-      </c>
-      <c r="AM40">
-        <v>17.43</v>
-      </c>
-      <c r="AN40">
-        <v>63.11</v>
-      </c>
-      <c r="AO40">
-        <v>37.98</v>
-      </c>
-      <c r="AP40">
-        <v>0</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>36.89</v>
-      </c>
-      <c r="AS40">
-        <v>0</v>
-      </c>
-      <c r="AT40">
-        <v>0</v>
-      </c>
-      <c r="AU40">
-        <v>25.13</v>
-      </c>
-      <c r="AV40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:32">
       <c r="A41" s="1">
         <v>30304</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D41">
         <v>202201</v>
@@ -6399,10 +4431,10 @@
         <v>2218305018</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H41" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I41">
         <v>4211032000</v>
@@ -6411,7 +4443,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K41" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L41">
         <v>4677353</v>
@@ -6423,117 +4455,69 @@
         <v>19988.68803418804</v>
       </c>
       <c r="O41">
-        <v>100</v>
+        <v>29.37</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>5.33</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>4.52</v>
       </c>
       <c r="R41">
-        <v>23.26</v>
+        <v>4.53</v>
       </c>
       <c r="S41">
-        <v>16.08</v>
+        <v>12.66</v>
       </c>
       <c r="T41">
-        <v>30.19</v>
+        <v>17.39</v>
       </c>
       <c r="U41">
-        <v>19.63</v>
+        <v>1.22</v>
       </c>
       <c r="V41">
-        <v>10.84</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="X41">
-        <v>29.62</v>
+        <v>22.15</v>
       </c>
       <c r="Y41">
-        <v>48.82</v>
+        <v>16.47</v>
       </c>
       <c r="Z41">
-        <v>21.56</v>
+        <v>13.06</v>
       </c>
       <c r="AA41">
         <v>0</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>32.3</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>35.33</v>
       </c>
       <c r="AD41">
         <v>0</v>
       </c>
       <c r="AE41">
-        <v>29.37</v>
+        <v>2.84</v>
       </c>
       <c r="AF41">
-        <v>5.33</v>
-      </c>
-      <c r="AG41">
-        <v>4.52</v>
-      </c>
-      <c r="AH41">
-        <v>4.53</v>
-      </c>
-      <c r="AI41">
-        <v>12.66</v>
-      </c>
-      <c r="AJ41">
-        <v>17.39</v>
-      </c>
-      <c r="AK41">
-        <v>1.22</v>
-      </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
-      <c r="AM41">
-        <v>2.84</v>
-      </c>
-      <c r="AN41">
-        <v>22.15</v>
-      </c>
-      <c r="AO41">
-        <v>16.47</v>
-      </c>
-      <c r="AP41">
-        <v>13.06</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>32.3</v>
-      </c>
-      <c r="AS41">
-        <v>35.33</v>
-      </c>
-      <c r="AT41">
-        <v>0</v>
-      </c>
-      <c r="AU41">
-        <v>2.84</v>
-      </c>
-      <c r="AV41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:32">
       <c r="A42" s="1">
         <v>31541</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D42">
         <v>202202</v>
@@ -6545,10 +4529,10 @@
         <v>2218204098</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I42">
         <v>4211032000</v>
@@ -6557,7 +4541,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L42">
         <v>472156</v>
@@ -6569,7 +4553,7 @@
         <v>29509.75</v>
       </c>
       <c r="O42">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -6578,28 +4562,28 @@
         <v>0</v>
       </c>
       <c r="R42">
-        <v>89.56</v>
+        <v>0</v>
       </c>
       <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
         <v>10.44</v>
       </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
       <c r="W42">
-        <v>0</v>
+        <v>38.52</v>
       </c>
       <c r="X42">
         <v>51.04</v>
       </c>
       <c r="Y42">
-        <v>48.96</v>
+        <v>0</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -6608,10 +4592,10 @@
         <v>0</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>38.52</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>51.04</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -6620,66 +4604,18 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>0</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
-      <c r="AK42">
-        <v>0</v>
-      </c>
-      <c r="AL42">
         <v>10.44</v>
       </c>
-      <c r="AM42">
-        <v>38.52</v>
-      </c>
-      <c r="AN42">
-        <v>51.04</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>0</v>
-      </c>
-      <c r="AQ42">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>38.52</v>
-      </c>
-      <c r="AS42">
-        <v>51.04</v>
-      </c>
-      <c r="AT42">
-        <v>0</v>
-      </c>
-      <c r="AU42">
-        <v>0</v>
-      </c>
-      <c r="AV42">
-        <v>10.44</v>
-      </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:32">
       <c r="A43" s="1">
         <v>31542</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D43">
         <v>202202</v>
@@ -6691,10 +4627,10 @@
         <v>2218305018</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H43" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I43">
         <v>4211032000</v>
@@ -6703,7 +4639,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K43" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L43">
         <v>10046880</v>
@@ -6715,117 +4651,69 @@
         <v>32619.74025974026</v>
       </c>
       <c r="O43">
-        <v>100</v>
+        <v>7.61</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="R43">
-        <v>56.11</v>
+        <v>51.21</v>
       </c>
       <c r="S43">
-        <v>10.54</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>9.449999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="U43">
-        <v>16.17</v>
+        <v>0.71</v>
       </c>
       <c r="V43">
-        <v>7.73</v>
+        <v>2.63</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>7.58</v>
       </c>
       <c r="X43">
-        <v>57.92</v>
+        <v>17.94</v>
       </c>
       <c r="Y43">
-        <v>29.3</v>
+        <v>2.92</v>
       </c>
       <c r="Z43">
-        <v>12.79</v>
+        <v>1.14</v>
       </c>
       <c r="AA43">
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>16.24</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>4.01</v>
       </c>
       <c r="AE43">
-        <v>7.61</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AF43">
-        <v>1.05</v>
-      </c>
-      <c r="AG43">
-        <v>5.66</v>
-      </c>
-      <c r="AH43">
-        <v>51.21</v>
-      </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
-      <c r="AJ43">
-        <v>5.6</v>
-      </c>
-      <c r="AK43">
-        <v>0.71</v>
-      </c>
-      <c r="AL43">
-        <v>2.63</v>
-      </c>
-      <c r="AM43">
-        <v>7.58</v>
-      </c>
-      <c r="AN43">
-        <v>17.94</v>
-      </c>
-      <c r="AO43">
-        <v>2.92</v>
-      </c>
-      <c r="AP43">
-        <v>1.14</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>16.24</v>
-      </c>
-      <c r="AS43">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="AT43">
-        <v>4.01</v>
-      </c>
-      <c r="AU43">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="AV43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:32">
       <c r="A44" s="1">
         <v>32788</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D44">
         <v>202203</v>
@@ -6837,10 +4725,10 @@
         <v>2218204098</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I44">
         <v>4211032000</v>
@@ -6849,7 +4737,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K44" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L44">
         <v>1277615</v>
@@ -6861,7 +4749,7 @@
         <v>45629.10714285714</v>
       </c>
       <c r="O44">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -6870,108 +4758,60 @@
         <v>0</v>
       </c>
       <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>1.88</v>
+      </c>
+      <c r="W44">
         <v>14.8</v>
       </c>
-      <c r="S44">
-        <v>23.11</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
+      <c r="X44">
+        <v>83.33</v>
+      </c>
+      <c r="Y44">
         <v>62.1</v>
       </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
         <v>14.8</v>
       </c>
-      <c r="Y44">
-        <v>83.33</v>
-      </c>
-      <c r="Z44">
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>21.23</v>
+      </c>
+      <c r="AF44">
         <v>1.88</v>
       </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
-      <c r="AK44">
-        <v>0</v>
-      </c>
-      <c r="AL44">
-        <v>1.88</v>
-      </c>
-      <c r="AM44">
-        <v>14.8</v>
-      </c>
-      <c r="AN44">
-        <v>83.33</v>
-      </c>
-      <c r="AO44">
-        <v>62.1</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>14.8</v>
-      </c>
-      <c r="AS44">
-        <v>0</v>
-      </c>
-      <c r="AT44">
-        <v>0</v>
-      </c>
-      <c r="AU44">
-        <v>21.23</v>
-      </c>
-      <c r="AV44">
-        <v>1.88</v>
-      </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:32">
       <c r="A45" s="1">
         <v>32789</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D45">
         <v>202203</v>
@@ -6983,10 +4823,10 @@
         <v>2218305018</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H45" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I45">
         <v>4211032000</v>
@@ -6995,7 +4835,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K45" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L45">
         <v>8035012</v>
@@ -7007,117 +4847,69 @@
         <v>26344.30163934426</v>
       </c>
       <c r="O45">
-        <v>100</v>
+        <v>11.7</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>7.69</v>
       </c>
       <c r="R45">
-        <v>35.45</v>
+        <v>29.96</v>
       </c>
       <c r="S45">
-        <v>12.18</v>
+        <v>12.23</v>
       </c>
       <c r="T45">
-        <v>25.86</v>
+        <v>6.7</v>
       </c>
       <c r="U45">
-        <v>19.31</v>
+        <v>8.06</v>
       </c>
       <c r="V45">
-        <v>7.2</v>
+        <v>1.55</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="X45">
-        <v>57.05</v>
+        <v>16.43</v>
       </c>
       <c r="Y45">
-        <v>27.97</v>
+        <v>0.89</v>
       </c>
       <c r="Z45">
-        <v>14.98</v>
+        <v>0.55</v>
       </c>
       <c r="AA45">
         <v>0</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>27.48</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>64.7</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE45">
-        <v>11.7</v>
+        <v>5.05</v>
       </c>
       <c r="AF45">
-        <v>2.47</v>
-      </c>
-      <c r="AG45">
-        <v>7.69</v>
-      </c>
-      <c r="AH45">
-        <v>29.96</v>
-      </c>
-      <c r="AI45">
-        <v>12.23</v>
-      </c>
-      <c r="AJ45">
-        <v>6.7</v>
-      </c>
-      <c r="AK45">
-        <v>8.06</v>
-      </c>
-      <c r="AL45">
-        <v>1.55</v>
-      </c>
-      <c r="AM45">
-        <v>3.22</v>
-      </c>
-      <c r="AN45">
-        <v>16.43</v>
-      </c>
-      <c r="AO45">
-        <v>0.89</v>
-      </c>
-      <c r="AP45">
-        <v>0.55</v>
-      </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>27.48</v>
-      </c>
-      <c r="AS45">
-        <v>64.7</v>
-      </c>
-      <c r="AT45">
-        <v>1.26</v>
-      </c>
-      <c r="AU45">
-        <v>5.05</v>
-      </c>
-      <c r="AV45">
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:32">
       <c r="A46" s="1">
         <v>34039</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D46">
         <v>202204</v>
@@ -7129,10 +4921,10 @@
         <v>2218204098</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I46">
         <v>4211032000</v>
@@ -7141,7 +4933,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K46" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L46">
         <v>279210</v>
@@ -7153,7 +4945,7 @@
         <v>17450.625</v>
       </c>
       <c r="O46">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -7171,19 +4963,19 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>81.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>18.4</v>
+        <v>32.31</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>67.69</v>
       </c>
       <c r="X46">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>81.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -7192,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>67.69</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -7204,66 +4996,18 @@
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>0</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
-      <c r="AK46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
         <v>32.31</v>
       </c>
-      <c r="AM46">
-        <v>67.69</v>
-      </c>
-      <c r="AN46">
-        <v>0</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>0</v>
-      </c>
-      <c r="AQ46">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>67.69</v>
-      </c>
-      <c r="AS46">
-        <v>0</v>
-      </c>
-      <c r="AT46">
-        <v>0</v>
-      </c>
-      <c r="AU46">
-        <v>0</v>
-      </c>
-      <c r="AV46">
-        <v>32.31</v>
-      </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:32">
       <c r="A47" s="1">
         <v>34040</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D47">
         <v>202204</v>
@@ -7275,10 +5019,10 @@
         <v>2218305018</v>
       </c>
       <c r="G47" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H47" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I47">
         <v>4211032000</v>
@@ -7287,7 +5031,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K47" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L47">
         <v>6732060</v>
@@ -7299,117 +5043,69 @@
         <v>19345</v>
       </c>
       <c r="O47">
-        <v>100</v>
+        <v>8.42</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>10.57</v>
       </c>
       <c r="R47">
-        <v>15.93</v>
+        <v>12.77</v>
       </c>
       <c r="S47">
-        <v>16.69</v>
+        <v>5.75</v>
       </c>
       <c r="T47">
-        <v>26.28</v>
+        <v>21.63</v>
       </c>
       <c r="U47">
-        <v>29.1</v>
+        <v>6.02</v>
       </c>
       <c r="V47">
-        <v>12</v>
+        <v>4.68</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>8.42</v>
       </c>
       <c r="X47">
-        <v>27.88</v>
+        <v>21.74</v>
       </c>
       <c r="Y47">
-        <v>45.01</v>
+        <v>7.2</v>
       </c>
       <c r="Z47">
-        <v>27.1</v>
+        <v>0.99</v>
       </c>
       <c r="AA47">
         <v>0</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>53.51</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>6.34</v>
       </c>
       <c r="AE47">
-        <v>8.42</v>
+        <v>12.94</v>
       </c>
       <c r="AF47">
-        <v>0</v>
-      </c>
-      <c r="AG47">
-        <v>10.57</v>
-      </c>
-      <c r="AH47">
-        <v>12.77</v>
-      </c>
-      <c r="AI47">
-        <v>5.75</v>
-      </c>
-      <c r="AJ47">
-        <v>21.63</v>
-      </c>
-      <c r="AK47">
-        <v>6.02</v>
-      </c>
-      <c r="AL47">
-        <v>4.68</v>
-      </c>
-      <c r="AM47">
-        <v>8.42</v>
-      </c>
-      <c r="AN47">
-        <v>21.74</v>
-      </c>
-      <c r="AO47">
-        <v>7.2</v>
-      </c>
-      <c r="AP47">
-        <v>0.99</v>
-      </c>
-      <c r="AQ47">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>17.5</v>
-      </c>
-      <c r="AS47">
-        <v>53.51</v>
-      </c>
-      <c r="AT47">
-        <v>6.34</v>
-      </c>
-      <c r="AU47">
-        <v>12.94</v>
-      </c>
-      <c r="AV47">
         <v>1.52</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:32">
       <c r="A48" s="1">
         <v>35296</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D48">
         <v>202205</v>
@@ -7421,10 +5117,10 @@
         <v>2218204098</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I48">
         <v>4211032000</v>
@@ -7433,7 +5129,7 @@
         <v>1411.818181818182</v>
       </c>
       <c r="K48" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L48">
         <v>2088061</v>
@@ -7445,117 +5141,69 @@
         <v>47455.93181818182</v>
       </c>
       <c r="O48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>5.13</v>
+        <v>0</v>
       </c>
       <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>2.45</v>
+      </c>
+      <c r="W48">
         <v>8.81</v>
       </c>
-      <c r="T48">
-        <v>4.96</v>
-      </c>
-      <c r="U48">
-        <v>59.59</v>
-      </c>
-      <c r="V48">
+      <c r="X48">
+        <v>83.61</v>
+      </c>
+      <c r="Y48">
+        <v>57.14</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>8.81</v>
+      </c>
+      <c r="AC48">
+        <v>10.09</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
         <v>21.51</v>
       </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>65.94</v>
-      </c>
-      <c r="Y48">
-        <v>28.93</v>
-      </c>
-      <c r="Z48">
-        <v>5.13</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
       <c r="AF48">
-        <v>5.13</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
         <v>2.45</v>
       </c>
-      <c r="AM48">
-        <v>8.81</v>
-      </c>
-      <c r="AN48">
-        <v>83.61</v>
-      </c>
-      <c r="AO48">
-        <v>57.14</v>
-      </c>
-      <c r="AP48">
-        <v>0</v>
-      </c>
-      <c r="AQ48">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>8.81</v>
-      </c>
-      <c r="AS48">
-        <v>10.09</v>
-      </c>
-      <c r="AT48">
-        <v>0</v>
-      </c>
-      <c r="AU48">
-        <v>21.51</v>
-      </c>
-      <c r="AV48">
-        <v>2.45</v>
-      </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:32">
       <c r="A49" s="1">
         <v>35297</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D49">
         <v>202205</v>
@@ -7567,10 +5215,10 @@
         <v>2218305018</v>
       </c>
       <c r="G49" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H49" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I49">
         <v>4211032000</v>
@@ -7579,7 +5227,7 @@
         <v>983.3333333333334</v>
       </c>
       <c r="K49" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L49">
         <v>7067905</v>
@@ -7591,105 +5239,57 @@
         <v>27080.09578544061</v>
       </c>
       <c r="O49">
-        <v>100</v>
+        <v>15.78</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>10.39</v>
       </c>
       <c r="R49">
-        <v>16.83</v>
+        <v>5.3</v>
       </c>
       <c r="S49">
-        <v>23.98</v>
+        <v>4.33</v>
       </c>
       <c r="T49">
-        <v>31.08</v>
+        <v>14.34</v>
       </c>
       <c r="U49">
-        <v>11.72</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>16.39</v>
+        <v>10.86</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>17.77</v>
       </c>
       <c r="X49">
-        <v>54.2</v>
+        <v>19.22</v>
       </c>
       <c r="Y49">
-        <v>30.75</v>
+        <v>3.12</v>
       </c>
       <c r="Z49">
-        <v>15.05</v>
+        <v>5.42</v>
       </c>
       <c r="AA49">
         <v>0</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>25.16</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>21.87</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>16.59</v>
       </c>
       <c r="AE49">
-        <v>15.78</v>
+        <v>14.25</v>
       </c>
       <c r="AF49">
-        <v>2.01</v>
-      </c>
-      <c r="AG49">
-        <v>10.39</v>
-      </c>
-      <c r="AH49">
-        <v>5.3</v>
-      </c>
-      <c r="AI49">
-        <v>4.33</v>
-      </c>
-      <c r="AJ49">
-        <v>14.34</v>
-      </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>10.86</v>
-      </c>
-      <c r="AM49">
-        <v>17.77</v>
-      </c>
-      <c r="AN49">
-        <v>19.22</v>
-      </c>
-      <c r="AO49">
-        <v>3.12</v>
-      </c>
-      <c r="AP49">
-        <v>5.42</v>
-      </c>
-      <c r="AQ49">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>25.16</v>
-      </c>
-      <c r="AS49">
-        <v>21.87</v>
-      </c>
-      <c r="AT49">
-        <v>16.59</v>
-      </c>
-      <c r="AU49">
-        <v>14.25</v>
-      </c>
-      <c r="AV49">
         <v>13.6</v>
       </c>
     </row>
